--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -1725,10 +1725,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
         <v>3</v>
@@ -1782,7 +1782,7 @@
         <v>151</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>12</v>
@@ -1978,28 +1978,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K12" t="n">
         <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O12" t="n">
         <v>1.13</v>
@@ -2026,43 +2026,43 @@
         <v>3.75</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
         <v>7.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9</v>
       </c>
       <c r="AC12" t="n">
         <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ12" t="n">
         <v>26</v>
@@ -2122,7 +2122,7 @@
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>2.15</v>
@@ -2149,10 +2149,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>3.25</v>
@@ -2161,16 +2161,16 @@
         <v>1.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
@@ -2185,28 +2185,28 @@
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="n">
         <v>201</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
         <v>11</v>
@@ -2260,70 +2260,70 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.62</v>
       </c>
-      <c r="J14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="V14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X14" t="n">
         <v>1.5</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
@@ -2332,10 +2332,10 @@
         <v>67</v>
       </c>
       <c r="AE14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF14" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>23</v>
@@ -2347,28 +2347,28 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2546,58 +2546,58 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.14</v>
       </c>
-      <c r="N16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="U16" t="n">
         <v>1.57</v>
       </c>
-      <c r="P16" t="n">
+      <c r="V16" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X16" t="n">
         <v>1.62</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.57</v>
       </c>
       <c r="Y16" t="n">
         <v>5.5</v>
@@ -2612,28 +2612,28 @@
         <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="n">
         <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI16" t="n">
         <v>101</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
         <v>17</v>
@@ -2651,10 +2651,10 @@
         <v>51</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2836,46 +2836,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.25</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.4</v>
@@ -2884,22 +2884,22 @@
         <v>2.75</v>
       </c>
       <c r="W18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y18" t="n">
         <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA18" t="n">
         <v>8.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
@@ -2911,46 +2911,46 @@
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI18" t="n">
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN18" t="n">
         <v>51</v>
       </c>
-      <c r="AN18" t="n">
-        <v>41</v>
-      </c>
       <c r="AO18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="19">
@@ -3545,97 +3545,97 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J23" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K23" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="L23" t="n">
         <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="S23" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="V23" t="n">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="W23" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="X23" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA23" t="n">
         <v>8.25</v>
       </c>
       <c r="AB23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="n">
         <v>15</v>
       </c>
-      <c r="AC23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16</v>
-      </c>
       <c r="AH23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI23" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>13.5</v>
@@ -3969,22 +3969,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="J27" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -3996,7 +3996,7 @@
         <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q27" t="n">
         <v>1.65</v>
@@ -4023,31 +4023,31 @@
         <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>8.25</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
         <v>45</v>
@@ -4056,22 +4056,22 @@
         <v>300</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4110,22 +4110,22 @@
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L28" t="n">
         <v>2.67</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.77</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -4140,10 +4140,10 @@
         <v>4.15</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S28" t="n">
         <v>2.4</v>
@@ -4161,22 +4161,22 @@
         <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD28" t="n">
         <v>24</v>
@@ -4185,7 +4185,7 @@
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG28" t="n">
         <v>12</v>
@@ -4197,19 +4197,19 @@
         <v>250</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AK28" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -740,25 +740,25 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -863,16 +863,16 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U3" t="n">
         <v>1.4</v>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
@@ -923,13 +923,13 @@
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>21</v>
@@ -1000,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1093,10 +1093,10 @@
         <v>2.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
         <v>3.9</v>
@@ -1293,7 +1293,7 @@
         <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1320,16 +1320,16 @@
         <v>2.12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="X6" t="n">
         <v>1.62</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
@@ -1338,19 +1338,19 @@
         <v>45</v>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="n">
         <v>60</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
         <v>120</v>
@@ -1416,106 +1416,106 @@
         <v>3.05</v>
       </c>
       <c r="H7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.7</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="M7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.13</v>
       </c>
-      <c r="N7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.16</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="X7" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z7" t="n">
         <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="n">
         <v>35</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="AF7" t="n">
         <v>5.3</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AM7" t="n">
         <v>32</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1554,46 +1554,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U8" t="n">
         <v>1.5</v>
@@ -1602,61 +1602,61 @@
         <v>2.42</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI8" t="n">
         <v>101</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1695,19 +1695,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U9" t="n">
         <v>1.36</v>
@@ -1743,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -1755,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -1764,10 +1764,10 @@
         <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -1785,7 +1785,7 @@
         <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>9.5</v>
@@ -1797,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1835,41 +1835,103 @@
           <t>Sabah</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.2</v>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.42</v>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>40</v>
+      </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
@@ -1906,41 +1968,103 @@
           <t>Terengganu</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.75</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.38</v>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
@@ -1978,22 +2102,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
         <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2014,55 +2138,55 @@
         <v>2.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
         <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
         <v>19</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ12" t="n">
         <v>26</v>
@@ -2080,7 +2204,7 @@
         <v>51</v>
       </c>
       <c r="AO12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2119,22 +2243,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2149,10 +2273,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>3.25</v>
@@ -2161,64 +2285,64 @@
         <v>1.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE13" t="n">
         <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="n">
         <v>201</v>
       </c>
       <c r="AJ13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>9</v>
-      </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
@@ -2260,115 +2384,115 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
       </c>
       <c r="L14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.6</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.57</v>
       </c>
-      <c r="P14" t="n">
+      <c r="V14" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>51</v>
       </c>
       <c r="AC14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="n">
         <v>51</v>
       </c>
-      <c r="AD14" t="n">
-        <v>67</v>
-      </c>
       <c r="AE14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="n">
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM14" t="n">
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2405,19 +2529,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -2462,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
         <v>9</v>
@@ -2489,7 +2613,7 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -2509,8 +2633,12 @@
       <c r="AO15" t="n">
         <v>51</v>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
     </row>
@@ -2546,28 +2674,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2582,10 +2710,10 @@
         <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U16" t="n">
         <v>1.57</v>
@@ -2603,13 +2731,13 @@
         <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
         <v>21</v>
@@ -2627,16 +2755,16 @@
         <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="n">
         <v>101</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2651,10 +2779,10 @@
         <v>51</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2709,10 +2837,10 @@
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.62</v>
@@ -2733,22 +2861,22 @@
         <v>1.11</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y17" t="n">
         <v>5.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA17" t="n">
         <v>11</v>
@@ -2763,7 +2891,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2772,13 +2900,13 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI17" t="n">
         <v>101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK17" t="n">
         <v>13</v>
@@ -2836,22 +2964,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -2866,55 +2994,55 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y18" t="n">
         <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB18" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB18" t="n">
-        <v>10</v>
-      </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH18" t="n">
         <v>67</v>
@@ -2923,16 +3051,16 @@
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AN18" t="n">
         <v>51</v>
@@ -2941,16 +3069,16 @@
         <v>51</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
@@ -2985,22 +3113,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J19" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3012,7 +3140,7 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>1.62</v>
@@ -3027,10 +3155,10 @@
         <v>1.47</v>
       </c>
       <c r="U19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W19" t="n">
         <v>1.57</v>
@@ -3039,10 +3167,10 @@
         <v>2.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
         <v>13</v>
@@ -3051,10 +3179,10 @@
         <v>60</v>
       </c>
       <c r="AC19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE19" t="n">
         <v>8.5</v>
@@ -3072,10 +3200,10 @@
         <v>300</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK19" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AL19" t="n">
         <v>8</v>
@@ -3087,7 +3215,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3126,102 +3254,102 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P20" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="R20" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="V20" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
         <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>25</v>
       </c>
-      <c r="AF20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN20" t="n">
         <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
         <v>16</v>
@@ -3263,22 +3391,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L21" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3290,55 +3418,55 @@
         <v>1.11</v>
       </c>
       <c r="P21" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="S21" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="V21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Y21" t="n">
         <v>14</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>10.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG21" t="n">
         <v>11.25</v>
@@ -3350,22 +3478,22 @@
         <v>120</v>
       </c>
       <c r="AJ21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO21" t="n">
         <v>22</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>25</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3404,109 +3532,109 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V22" t="n">
         <v>2.4</v>
       </c>
-      <c r="K22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="W22" t="n">
         <v>2.1</v>
       </c>
-      <c r="R22" t="n">
+      <c r="X22" t="n">
         <v>1.65</v>
       </c>
-      <c r="S22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Y22" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AE22" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AI22" t="n">
         <v>800</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3545,64 +3673,64 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>2.35</v>
       </c>
       <c r="K23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="T23" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="U23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V23" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="W23" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA23" t="n">
         <v>8.25</v>
@@ -3611,31 +3739,31 @@
         <v>14</v>
       </c>
       <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG23" t="n">
         <v>14</v>
       </c>
-      <c r="AD23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15</v>
-      </c>
       <c r="AH23" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AI23" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
         <v>13.5</v>
@@ -3644,10 +3772,10 @@
         <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AO23" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3686,64 +3814,64 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R24" t="n">
         <v>2.02</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
         <v>2.67</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="U24" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="V24" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>8.5</v>
@@ -3752,43 +3880,43 @@
         <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM24" t="n">
         <v>45</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3826,41 +3954,111 @@
           <t>Balestier Khalsa</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>34</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
@@ -3897,41 +4095,111 @@
           <t>Tanjong Pagar</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>34</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>41</v>
+      </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
@@ -3969,109 +4237,109 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="L27" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.65</v>
       </c>
-      <c r="R27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X27" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4110,67 +4378,67 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L28" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q28" t="n">
         <v>1.6</v>
       </c>
       <c r="R28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W28" t="n">
         <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB28" t="n">
         <v>35</v>
@@ -4182,13 +4450,13 @@
         <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
         <v>40</v>
@@ -4197,19 +4465,19 @@
         <v>250</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -4251,22 +4519,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4287,7 +4555,7 @@
         <v>2.35</v>
       </c>
       <c r="S29" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="T29" t="n">
         <v>1.57</v>
@@ -4302,22 +4570,22 @@
         <v>1.45</v>
       </c>
       <c r="X29" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA29" t="n">
         <v>9.75</v>
       </c>
       <c r="AB29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD29" t="n">
         <v>20</v>
@@ -4326,25 +4594,25 @@
         <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI29" t="n">
         <v>175</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM29" t="n">
         <v>28</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS28"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,154 +516,154 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over2_FT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under2_FT</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over25_FT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under25_FT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over3_FT</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over35_FT</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under35_FT</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_Yes</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_No</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8f71RSPs</t>
+          <t>W4vHttEb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,146 +673,138 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.33</v>
       </c>
-      <c r="P2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE2" t="n">
         <v>13</v>
       </c>
-      <c r="AE2" t="n">
-        <v>11</v>
-      </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>29</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W0p58mx8</t>
+          <t>8f71RSPs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -822,41 +814,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -865,103 +857,103 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.29</v>
       </c>
-      <c r="P3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.85</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>1.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>2.63</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.62</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
       </c>
       <c r="AF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>9</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AK3" t="n">
         <v>13</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AL3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO3" t="n">
         <v>34</v>
       </c>
-      <c r="AI3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>41</v>
-      </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>101</v>
+        <v>3.05</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>2.05</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rkqCzzDc</t>
+          <t>W0p58mx8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -971,138 +963,146 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.75</v>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="W4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
         <v>13</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="AD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR4" t="n">
         <v>2.75</v>
       </c>
-      <c r="X4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>21</v>
-      </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nDj9N475</t>
+          <t>rkqCzzDc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1112,138 +1112,138 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+        <v>1.4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.25</v>
+      </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.72</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.37</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.52</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.6</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12</v>
       </c>
-      <c r="AF5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>40</v>
-      </c>
       <c r="AH5" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.15</v>
+        <v>151</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN5" t="n">
         <v>21</v>
       </c>
-      <c r="AL5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>70</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8SvILrxI</t>
+          <t>nDj9N475</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1263,128 +1263,128 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="I6" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.75</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.62</v>
-      </c>
       <c r="P6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+        <v>1.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>5.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+        <v>1.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
       <c r="W6" t="n">
-        <v>5.2</v>
+        <v>2.37</v>
       </c>
       <c r="X6" t="n">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.18</v>
+        <v>11.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.62</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.2</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>4.15</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>5.3</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.65</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>120</v>
+        <v>12.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>900</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.1</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>55</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vmm1PQxg</t>
+          <t>8SvILrxI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1404,128 +1404,128 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.07</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>2.85</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+        <v>2.22</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>4.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+        <v>1.14</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.15</v>
+      </c>
       <c r="W7" t="n">
-        <v>4.3</v>
+        <v>2.15</v>
       </c>
       <c r="X7" t="n">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.52</v>
+        <v>6.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.37</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.02</v>
+        <v>11.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.7</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.5</v>
+        <v>32</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>4.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.5</v>
+        <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>10.75</v>
       </c>
       <c r="AM7" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS7" t="n">
         <v>50</v>
       </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yi9xEcd2</t>
+          <t>vmm1PQxg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1535,138 +1535,138 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="n">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
       <c r="AM8" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>26</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>44aphUD8</t>
+          <t>Yi9xEcd2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1676,130 +1676,138 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Selangor</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sabah</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+        <v>1.36</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
       <c r="W9" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+        <v>2.1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
       <c r="AA9" t="n">
-        <v>1.75</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.96</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.1</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.3</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.25</v>
+        <v>151</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>9.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A7BnU7b2</t>
+          <t>44aphUD8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1819,120 +1827,120 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sri Pahang</t>
+          <t>Selangor</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Sabah</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.27</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="L10" t="n">
-        <v>2.85</v>
+        <v>5.1</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+        <v>3.95</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.93</v>
+      </c>
       <c r="S10" t="n">
-        <v>1.72</v>
+        <v>2.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+        <v>1.96</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6.3</v>
+      </c>
       <c r="AA10" t="n">
-        <v>1.63</v>
+        <v>6.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.13</v>
+        <v>9.25</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13</v>
       </c>
-      <c r="AE10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18</v>
-      </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="n">
-        <v>10.75</v>
+        <v>350</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.6</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>35</v>
+        <v>13.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.7</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fB1S72wP</t>
+          <t>A7BnU7b2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1942,138 +1950,130 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Sri Pahang</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.73</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.75</v>
       </c>
-      <c r="L11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>21</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+        <v>3.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>2.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>1.38</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.22</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.75</v>
+        <v>8.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK11" t="n">
         <v>10</v>
       </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19</v>
-      </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>7.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>41</v>
-      </c>
+        <v>18.5</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bq8J9O8C</t>
+          <t>fB1S72wP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2093,128 +2093,128 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1.91</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.7</v>
+      </c>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4</v>
+      </c>
       <c r="W12" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.75</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK12" t="n">
         <v>41</v>
       </c>
-      <c r="AG12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
       <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN12" t="n">
         <v>51</v>
       </c>
-      <c r="AM12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>26</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bH9HOqKq</t>
+          <t>bq8J9O8C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2224,142 +2224,138 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>2.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
         <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+        <v>1.33</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.75</v>
+      </c>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.53</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.38</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.57</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>51</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.5</v>
+        <v>201</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>81</v>
+        <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t0TpU5dM</t>
+          <t>bH9HOqKq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2379,37 +2375,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.8</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2418,93 +2414,93 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.5</v>
+      </c>
       <c r="W14" t="n">
-        <v>4.33</v>
+        <v>2.1</v>
       </c>
       <c r="X14" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.5</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.67</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.5</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>9</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AM14" t="n">
         <v>15</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AN14" t="n">
         <v>17</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AO14" t="n">
         <v>34</v>
       </c>
-      <c r="AI14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>21</v>
-      </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>51</v>
-      </c>
+        <v>2.03</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WU7PMNld</t>
+          <t>t0TpU5dM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2514,7 +2510,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2524,132 +2520,132 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF15" t="n">
         <v>6.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
       </c>
       <c r="AH15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
         <v>41</v>
       </c>
-      <c r="AI15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9</v>
-      </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>51</v>
-      </c>
+        <v>2.05</v>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nwjCpRt3</t>
+          <t>WU7PMNld</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2659,7 +2655,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2669,132 +2665,132 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Z16" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.38</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.53</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
         <v>41</v>
       </c>
-      <c r="AI16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>101</v>
-      </c>
       <c r="AN16" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>1.78</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>51</v>
-      </c>
+        <v>2.03</v>
+      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kfbc3G3U</t>
+          <t>nwjCpRt3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2804,146 +2800,142 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AD Tarma</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.36</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
         <v>7</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>7.5</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
         <v>12</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
         <v>29</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>1.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>51</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IHWydhBb</t>
+          <t>Kfbc3G3U</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2953,138 +2945,146 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>AD Tarma</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Wakra</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.95</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.82</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.15</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>2.37</v>
+        <v>7.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA18" t="n">
         <v>8.5</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AB18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>3.05</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>16</v>
-      </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>2.36</v>
       </c>
       <c r="AS18" t="n">
-        <v>20</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>d2rTcEtn</t>
+          <t>IHWydhBb</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3104,124 +3104,128 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Al Wakra</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="J19" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V19" t="n">
         <v>3.05</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="X19" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.21</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.9</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.33</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>3.05</v>
+        <v>60</v>
       </c>
       <c r="AC19" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>37</v>
+        <v>7.2</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AL19" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>16</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6w3JwBeU</t>
+          <t>d2rTcEtn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3231,7 +3235,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3241,128 +3245,124 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.83</v>
       </c>
-      <c r="H20" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1.36</v>
-      </c>
       <c r="T20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+        <v>1.88</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.9</v>
+      </c>
       <c r="W20" t="n">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.22</v>
+        <v>18.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.85</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.37</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.85</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>9.25</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>10.25</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.25</v>
+        <v>16.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>11.25</v>
+        <v>17.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>9.75</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>48kCDiwn</t>
+          <t>6w3JwBeU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3377,133 +3377,133 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>4.05</v>
       </c>
       <c r="I21" t="n">
-        <v>4.85</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="K21" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="L21" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+        <v>5.6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.9</v>
+      </c>
       <c r="S21" t="n">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+        <v>1.83</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.85</v>
+      </c>
       <c r="W21" t="n">
-        <v>4.15</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>1.19</v>
+        <v>2.85</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.42</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.22</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.6</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.2</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.7</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>150</v>
-      </c>
       <c r="AM21" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.25</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>80</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CYhKBV7b</t>
+          <t>48kCDiwn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3523,128 +3523,128 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="J22" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="L22" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>8.25</v>
+        <v>5.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.53</v>
+      </c>
       <c r="S22" t="n">
-        <v>1.7</v>
+        <v>4.15</v>
       </c>
       <c r="T22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+        <v>1.19</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.42</v>
+      </c>
       <c r="W22" t="n">
-        <v>2.65</v>
+        <v>2.22</v>
       </c>
       <c r="X22" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.38</v>
+        <v>5.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.82</v>
+        <v>6.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.7</v>
+        <v>8.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.05</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.75</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.25</v>
+        <v>5.9</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>6.7</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.25</v>
+        <v>800</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.4</v>
+        <v>10.25</v>
       </c>
       <c r="AK22" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>13.5</v>
+        <v>65</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>37</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vm90i1Mq</t>
+          <t>CYhKBV7b</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3664,128 +3664,128 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="K23" t="n">
         <v>2.18</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
       <c r="S23" t="n">
-        <v>1.72</v>
+        <v>2.65</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
-      </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+        <v>1.42</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.82</v>
+      </c>
       <c r="W23" t="n">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.36</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.9</v>
+        <v>8.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.62</v>
+        <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.18</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.25</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>7.3</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AI23" t="n">
-        <v>7.9</v>
+        <v>400</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6.7</v>
+        <v>14.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ23" t="n">
         <v>40</v>
       </c>
-      <c r="AR23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>29</v>
-      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CKcVOANb</t>
+          <t>vm90i1Mq</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3795,138 +3795,138 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.1</v>
       </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.88</v>
-      </c>
       <c r="L24" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>34</v>
+        <v>7.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.82</v>
+      </c>
       <c r="S24" t="n">
-        <v>1.22</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+        <v>1.32</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.67</v>
+      </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.14</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.22</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>7.3</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>6.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>450</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>10.25</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>15</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8nivNlhB</t>
+          <t>CKcVOANb</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3946,31 +3946,31 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tanjong Pagar</t>
+          <t>Balestier Khalsa</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.22</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="J25" t="n">
-        <v>1.57</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>2.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -3984,45 +3984,53 @@
       <c r="P25" t="n">
         <v>13</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.5</v>
+      </c>
       <c r="S25" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>5</v>
-      </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6</v>
+      </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="X25" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.11</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.5</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.4</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.75</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
         <v>21</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -4031,43 +4039,35 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>41</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tvxbwITP</t>
+          <t>8nivNlhB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4077,138 +4077,138 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Geylang</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.62</v>
+        <v>1.22</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>1.57</v>
       </c>
       <c r="K26" t="n">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>2.95</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>8.25</v>
+        <v>34</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="P26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6</v>
+      </c>
       <c r="S26" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7</v>
+      </c>
       <c r="W26" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="X26" t="n">
-        <v>1.44</v>
+        <v>3.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.34</v>
+        <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.57</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.25</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
         <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.75</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>8.25</v>
+        <v>51</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AL26" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>24</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vknwUDjC</t>
+          <t>tvxbwITP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4228,264 +4228,405 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.27</v>
+        <v>2.85</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="K27" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.05</v>
+      </c>
       <c r="S27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.6</v>
       </c>
-      <c r="T27" t="n">
+      <c r="X27" t="n">
         <v>2.22</v>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Y27" t="n">
-        <v>1.31</v>
+        <v>9.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.15</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.52</v>
+        <v>9</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.37</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AH27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL27" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AM27" t="n">
         <v>35</v>
       </c>
-      <c r="AG27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>200</v>
-      </c>
       <c r="AN27" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>vknwUDjC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Al Nasr</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>YyHxWZLa</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>27/02/2025</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>13:15</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Al Wahda</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>2.55</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>3.55</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>2.45</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K29" t="n">
         <v>2.3</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>2.95</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M29" t="n">
         <v>1.03</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N29" t="n">
         <v>9</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O29" t="n">
         <v>1.17</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
         <v>4.4</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
+      <c r="Q29" t="n">
         <v>1.53</v>
       </c>
-      <c r="T28" t="n">
+      <c r="R29" t="n">
         <v>2.35</v>
       </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="n">
+      <c r="S29" t="n">
         <v>2.27</v>
       </c>
-      <c r="X28" t="n">
+      <c r="T29" t="n">
         <v>1.57</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="U29" t="n">
         <v>1.29</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="V29" t="n">
         <v>3.3</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="W29" t="n">
         <v>1.45</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="X29" t="n">
         <v>2.55</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="Y29" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="Z29" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AA29" t="n">
         <v>9.75</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AB29" t="n">
         <v>30</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AC29" t="n">
         <v>18</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AD29" t="n">
         <v>20</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AE29" t="n">
         <v>9</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AF29" t="n">
         <v>7.4</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AG29" t="n">
         <v>11</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AH29" t="n">
         <v>35</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AI29" t="n">
         <v>175</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AJ29" t="n">
         <v>12</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AK29" t="n">
         <v>15.5</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AL29" t="n">
         <v>9.5</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AM29" t="n">
         <v>28</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AN29" t="n">
         <v>17.5</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AO29" t="n">
         <v>20</v>
       </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -716,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -728,10 +728,10 @@
         <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>1.33</v>
@@ -782,10 +782,10 @@
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -863,10 +863,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
         <v>3.75</v>
@@ -887,7 +887,7 @@
         <v>1.95</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>12</v>
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>21</v>
@@ -911,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -920,7 +920,7 @@
         <v>251</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK3" t="n">
         <v>13</v>
@@ -1131,28 +1131,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1161,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>2.75</v>
@@ -1173,16 +1173,16 @@
         <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1191,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
@@ -1200,10 +1200,10 @@
         <v>19</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
@@ -1224,10 +1224,10 @@
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>21</v>
@@ -1272,79 +1272,79 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="H6" t="n">
         <v>2.47</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>1.72</v>
       </c>
       <c r="L6" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.19</v>
       </c>
       <c r="N6" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.75</v>
       </c>
       <c r="P6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
         <v>1.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="X6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AD6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AF6" t="n">
         <v>5.3</v>
@@ -1359,22 +1359,22 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1413,88 +1413,88 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="H7" t="n">
         <v>2.67</v>
       </c>
       <c r="I7" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.6</v>
       </c>
-      <c r="P7" t="n">
+      <c r="V7" t="n">
         <v>2.22</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.15</v>
-      </c>
       <c r="W7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z7" t="n">
         <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB7" t="n">
         <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>5.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="n">
         <v>900</v>
@@ -1506,13 +1506,13 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>37</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
         <v>50</v>
@@ -1554,97 +1554,97 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>4.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.47</v>
       </c>
-      <c r="P8" t="n">
+      <c r="V8" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.35</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="X8" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="AB8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="n">
         <v>55</v>
@@ -1698,7 +1698,7 @@
         <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>2.2</v>
@@ -1707,10 +1707,10 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1719,22 +1719,22 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U9" t="n">
         <v>1.36</v>
@@ -1743,13 +1743,13 @@
         <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -1767,7 +1767,7 @@
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -1782,7 +1782,7 @@
         <v>151</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>12</v>
@@ -1797,7 +1797,7 @@
         <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1842,10 +1842,10 @@
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K10" t="n">
         <v>2.22</v>
@@ -1856,10 +1856,10 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q10" t="n">
         <v>1.7</v>
@@ -1868,27 +1868,27 @@
         <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB10" t="n">
         <v>9.25</v>
@@ -1897,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6.6</v>
@@ -1912,19 +1912,19 @@
         <v>50</v>
       </c>
       <c r="AI10" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>13.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>40</v>
@@ -1969,89 +1969,89 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X11" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
         <v>8.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL11" t="n">
         <v>7.5</v>
@@ -2060,10 +2060,10 @@
         <v>18</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>1.8</v>
@@ -2405,7 +2405,7 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2414,16 +2414,16 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
@@ -2444,7 +2444,7 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>51</v>
@@ -2471,7 +2471,7 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK14" t="n">
         <v>7.5</v>
@@ -2489,10 +2489,10 @@
         <v>34</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>4.75</v>
@@ -2541,52 +2541,52 @@
         <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z15" t="n">
         <v>7.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>9</v>
@@ -2595,19 +2595,19 @@
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
@@ -2616,7 +2616,7 @@
         <v>900</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
@@ -2692,22 +2692,22 @@
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2819,61 +2819,61 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W17" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
@@ -2885,19 +2885,19 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>67</v>
@@ -2906,7 +2906,7 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
         <v>15</v>
@@ -2924,10 +2924,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
         <v>2.22</v>
@@ -3269,27 +3269,27 @@
         <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
         <v>5.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="S20" t="n">
         <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
         <v>1.21</v>
@@ -3304,31 +3304,31 @@
         <v>3.05</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
         <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB20" t="n">
         <v>37</v>
       </c>
       <c r="AC20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="n">
         <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH20" t="n">
         <v>25</v>
@@ -3676,25 +3676,25 @@
         <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J23" t="n">
         <v>2.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
         <v>4.8</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
@@ -3709,22 +3709,22 @@
         <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V23" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y23" t="n">
         <v>8</v>
@@ -3745,7 +3745,7 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF23" t="n">
         <v>7.3</v>
@@ -3757,13 +3757,13 @@
         <v>55</v>
       </c>
       <c r="AI23" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ23" t="n">
         <v>14.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>14.5</v>
@@ -3814,22 +3814,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J24" t="n">
         <v>2.92</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3838,22 +3838,22 @@
         <v>7.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U24" t="n">
         <v>1.42</v>
@@ -3865,43 +3865,43 @@
         <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC24" t="n">
         <v>18.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>7.3</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -3955,22 +3955,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H25" t="n">
         <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -3985,10 +3985,10 @@
         <v>13</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4003,16 +4003,16 @@
         <v>6</v>
       </c>
       <c r="W25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
@@ -4024,7 +4024,7 @@
         <v>21</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>34</v>
@@ -4045,19 +4045,19 @@
         <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4096,22 +4096,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -4123,25 +4123,25 @@
         <v>1.03</v>
       </c>
       <c r="P26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="R26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="V26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.3</v>
@@ -4156,7 +4156,7 @@
         <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="n">
         <v>15</v>
@@ -4171,34 +4171,34 @@
         <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>51</v>
       </c>
       <c r="AJ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK26" t="n">
         <v>51</v>
       </c>
-      <c r="AK26" t="n">
-        <v>67</v>
-      </c>
       <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO26" t="n">
         <v>29</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>34</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4378,22 +4378,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L28" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4420,10 +4420,10 @@
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W28" t="n">
         <v>1.52</v>
@@ -4435,52 +4435,52 @@
         <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>8.75</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH28" t="n">
         <v>40</v>
       </c>
       <c r="AI28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ28" t="n">
         <v>10.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
@@ -740,13 +740,13 @@
         <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>9.5</v>
@@ -779,7 +779,7 @@
         <v>251</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>3.4</v>
@@ -857,16 +857,16 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>3.75</v>
@@ -890,7 +890,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
@@ -899,10 +899,10 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -911,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -926,13 +926,13 @@
         <v>13</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -1012,16 +1012,16 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U4" t="n">
         <v>1.4</v>
@@ -1030,22 +1030,22 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1057,10 +1057,10 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>81</v>
@@ -1069,22 +1069,22 @@
         <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP4" t="n">
         <v>1.78</v>
@@ -1093,10 +1093,10 @@
         <v>2.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5">
@@ -1131,79 +1131,79 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>12</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
         <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
@@ -1218,22 +1218,22 @@
         <v>151</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>11</v>
       </c>
       <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO5" t="n">
         <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>26</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1272,28 +1272,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.47</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>1.72</v>
       </c>
       <c r="L6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.19</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.75</v>
@@ -1308,7 +1308,7 @@
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T6" t="n">
         <v>1.1</v>
@@ -1329,7 +1329,7 @@
         <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
@@ -1344,7 +1344,7 @@
         <v>60</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AF6" t="n">
         <v>5.3</v>
@@ -1359,7 +1359,7 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
@@ -1371,7 +1371,7 @@
         <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="n">
         <v>75</v>
@@ -1413,43 +1413,43 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
         <v>2.67</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R7" t="n">
         <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="T7" t="n">
         <v>1.15</v>
@@ -1458,7 +1458,7 @@
         <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
         <v>2.1</v>
@@ -1473,28 +1473,28 @@
         <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
         <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD7" t="n">
         <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AF7" t="n">
         <v>5.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI7" t="n">
         <v>900</v>
@@ -1506,13 +1506,13 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM7" t="n">
         <v>37</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
         <v>50</v>
@@ -1554,46 +1554,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L8" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U8" t="n">
         <v>1.47</v>
@@ -1608,28 +1608,28 @@
         <v>1.78</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z8" t="n">
         <v>9.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD8" t="n">
         <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG8" t="n">
         <v>15.5</v>
@@ -1641,7 +1641,7 @@
         <v>800</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK8" t="n">
         <v>19.5</v>
@@ -1650,13 +1650,13 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S9" t="n">
         <v>2.75</v>
@@ -1764,7 +1764,7 @@
         <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -1791,7 +1791,7 @@
         <v>9.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>17</v>
@@ -1839,16 +1839,16 @@
         <v>1.53</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
         <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
         <v>5.1</v>
@@ -1859,19 +1859,19 @@
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1882,13 +1882,13 @@
         <v>1.94</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z10" t="n">
         <v>6.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB10" t="n">
         <v>9.25</v>
@@ -1903,7 +1903,7 @@
         <v>11.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1972,19 +1972,19 @@
         <v>2.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L11" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1992,7 +1992,7 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q11" t="n">
         <v>1.7</v>
@@ -2001,69 +2001,69 @@
         <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AG11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK11" t="n">
         <v>10</v>
       </c>
-      <c r="AH11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AL11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AM11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>18</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2355,7 +2355,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bH9HOqKq</t>
+          <t>t0TpU5dM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2375,118 +2375,118 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="X14" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="AA14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG14" t="n">
         <v>17</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AH14" t="n">
         <v>51</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AI14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
         <v>41</v>
       </c>
-      <c r="AD14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17</v>
-      </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP14" t="n">
         <v>1.75</v>
@@ -2500,7 +2500,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t0TpU5dM</t>
+          <t>bH9HOqKq</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2520,91 +2520,91 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.67</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Y15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE15" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
@@ -2613,25 +2613,25 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AL15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN15" t="n">
         <v>17</v>
       </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>41</v>
-      </c>
       <c r="AO15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AP15" t="n">
         <v>1.75</v>
@@ -2692,22 +2692,22 @@
         <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2837,10 +2837,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2924,10 +2924,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2985,7 +2985,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -2994,16 +2994,16 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3069,16 +3069,16 @@
         <v>51</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="19">
@@ -3113,40 +3113,40 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="J19" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S19" t="n">
         <v>2.5</v>
@@ -3155,64 +3155,64 @@
         <v>1.47</v>
       </c>
       <c r="U19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="V19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
         <v>20</v>
@@ -3254,84 +3254,84 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="H20" t="n">
         <v>3.85</v>
       </c>
       <c r="I20" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K20" t="n">
         <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R20" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U20" t="n">
         <v>1.21</v>
       </c>
       <c r="V20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
         <v>37</v>
       </c>
       <c r="AC20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG20" t="n">
         <v>10.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>100</v>
@@ -3349,7 +3349,7 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO20" t="n">
         <v>16</v>
@@ -3391,22 +3391,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I21" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="K21" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="L21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3415,82 +3415,82 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="S21" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V21" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG21" t="n">
         <v>11.25</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
@@ -3532,109 +3532,109 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.3</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>5.2</v>
-      </c>
       <c r="Z22" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA22" t="n">
         <v>8.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF22" t="n">
         <v>5.9</v>
       </c>
-      <c r="AF22" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AI22" t="n">
         <v>800</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO22" t="n">
         <v>65</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>80</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -4096,22 +4096,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="I26" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -4123,31 +4123,31 @@
         <v>1.03</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="R26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="S26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.36</v>
       </c>
-      <c r="T26" t="n">
+      <c r="X26" t="n">
         <v>3</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="V26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>3.4</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -4156,49 +4156,49 @@
         <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>34</v>
       </c>
       <c r="AF26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG26" t="n">
         <v>17</v>
       </c>
-      <c r="AG26" t="n">
-        <v>15</v>
-      </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>51</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>41</v>
-      </c>
       <c r="AK26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>81</v>
       </c>
       <c r="AN26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO26" t="n">
         <v>41</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>29</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4237,22 +4237,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="J27" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4279,34 +4279,34 @@
         <v>1.42</v>
       </c>
       <c r="U27" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V27" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA27" t="n">
         <v>9.25</v>
       </c>
-      <c r="Z27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>9</v>
-      </c>
       <c r="AB27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD27" t="n">
         <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>8.25</v>
@@ -4315,7 +4315,7 @@
         <v>6.9</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>45</v>
@@ -4324,19 +4324,19 @@
         <v>300</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AM27" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -4378,22 +4378,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L28" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4420,67 +4420,67 @@
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Y28" t="n">
         <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>8.75</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI28" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ28" t="n">
         <v>10.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO28" t="n">
         <v>21</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>20</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4519,22 +4519,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L29" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4552,10 +4552,10 @@
         <v>1.53</v>
       </c>
       <c r="R29" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="S29" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T29" t="n">
         <v>1.57</v>
@@ -4564,25 +4564,25 @@
         <v>1.29</v>
       </c>
       <c r="V29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA29" t="n">
         <v>9.75</v>
       </c>
       <c r="AB29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC29" t="n">
         <v>18</v>
@@ -4594,19 +4594,19 @@
         <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
         <v>175</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK29" t="n">
         <v>15.5</v>
@@ -4615,10 +4615,10 @@
         <v>9.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -695,7 +695,7 @@
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
@@ -857,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -1030,13 +1030,13 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
         <v>5.5</v>
@@ -1045,43 +1045,43 @@
         <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI4" t="n">
         <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="n">
         <v>81</v>
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1161,10 +1161,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>2.63</v>
@@ -1185,16 +1185,16 @@
         <v>2.25</v>
       </c>
       <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>9</v>
-      </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>17</v>
@@ -1215,7 +1215,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1227,13 +1227,13 @@
         <v>11</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1272,82 +1272,82 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.47</v>
-      </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="L6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
         <v>1.53</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1359,19 +1359,19 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO6" t="n">
         <v>75</v>
@@ -1413,109 +1413,109 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.85</v>
+        <v>2.47</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L7" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.57</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.6</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AB7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC7" t="n">
         <v>35</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>32</v>
       </c>
       <c r="AD7" t="n">
         <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="n">
         <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AM7" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1557,88 +1557,88 @@
         <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.98</v>
       </c>
-      <c r="L8" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.93</v>
-      </c>
       <c r="X8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
         <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF8" t="n">
         <v>5.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
         <v>90</v>
       </c>
       <c r="AI8" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.75</v>
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1719,28 +1719,28 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W9" t="n">
         <v>1.62</v>
@@ -1752,19 +1752,19 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
       </c>
       <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD9" t="n">
         <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -1782,16 +1782,16 @@
         <v>151</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
         <v>12</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>17</v>
@@ -1836,56 +1836,56 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S10" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="X10" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AA10" t="n">
         <v>6.9</v>
@@ -1894,16 +1894,16 @@
         <v>9.25</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1921,10 +1921,10 @@
         <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
         <v>40</v>
@@ -1969,22 +1969,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>2.12</v>
       </c>
       <c r="L11" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1995,10 +1995,10 @@
         <v>3.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
         <v>2.8</v>
@@ -2015,55 +2015,55 @@
         <v>2.19</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF11" t="n">
         <v>5.7</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL11" t="n">
         <v>7.7</v>
       </c>
-      <c r="AK11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AM11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO11" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>18</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2550,7 +2550,7 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2565,10 +2565,10 @@
         <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U15" t="n">
         <v>1.53</v>
@@ -2634,10 +2634,10 @@
         <v>34</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2674,22 +2674,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2698,10 +2698,10 @@
         <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>2.25</v>
@@ -2734,13 +2734,13 @@
         <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
         <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
         <v>34</v>
@@ -2755,16 +2755,16 @@
         <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2837,10 +2837,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2849,10 +2849,10 @@
         <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
         <v>4.5</v>
@@ -2924,10 +2924,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2964,13 +2964,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.91</v>
@@ -2982,10 +2982,10 @@
         <v>7.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3012,16 +3012,16 @@
         <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
         <v>8.5</v>
@@ -3030,13 +3030,13 @@
         <v>8.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>9</v>
@@ -3045,7 +3045,7 @@
         <v>23</v>
       </c>
       <c r="AH18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="n">
         <v>351</v>
@@ -3072,7 +3072,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AR18" t="n">
         <v>2.45</v>
@@ -3113,109 +3113,109 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="L19" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="U19" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="W19" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC19" t="n">
         <v>29</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AI19" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3254,105 +3254,109 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
         <v>2.25</v>
       </c>
       <c r="J20" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
         <v>2.67</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.25</v>
+      </c>
       <c r="O20" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>5.8</v>
+        <v>4.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC20" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG20" t="n">
         <v>11</v>
       </c>
-      <c r="AB20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AH20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
         <v>9.25</v>
       </c>
-      <c r="AG20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AM20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN20" t="n">
         <v>15.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3532,109 +3536,109 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.88</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.93</v>
-      </c>
       <c r="L22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>5.3</v>
-      </c>
       <c r="Z22" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AF22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI22" t="n">
         <v>800</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK22" t="n">
         <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
         <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO22" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3673,22 +3677,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L23" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3697,19 +3701,19 @@
         <v>8.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T23" t="n">
         <v>1.44</v>
@@ -3721,25 +3725,25 @@
         <v>2.85</v>
       </c>
       <c r="W23" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD23" t="n">
         <v>22</v>
@@ -3748,34 +3752,34 @@
         <v>8.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3814,61 +3818,61 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K24" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="L24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="T24" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U24" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="V24" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z24" t="n">
         <v>12</v>
@@ -3880,16 +3884,16 @@
         <v>24</v>
       </c>
       <c r="AC24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD24" t="n">
         <v>26</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3901,7 +3905,7 @@
         <v>400</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -3913,10 +3917,10 @@
         <v>35</v>
       </c>
       <c r="AN24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4237,16 +4241,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="J27" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K27" t="n">
         <v>2.22</v>
@@ -4279,10 +4283,10 @@
         <v>1.42</v>
       </c>
       <c r="U27" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W27" t="n">
         <v>1.57</v>
@@ -4291,10 +4295,10 @@
         <v>2.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
         <v>9.25</v>
@@ -4324,22 +4328,22 @@
         <v>300</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK27" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4378,22 +4382,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
         <v>2.27</v>
       </c>
       <c r="L28" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4408,16 +4412,16 @@
         <v>4.15</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R28" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T28" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U28" t="n">
         <v>1.31</v>
@@ -4435,19 +4439,19 @@
         <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>8.75</v>
@@ -4465,22 +4469,22 @@
         <v>200</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN28" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4519,16 +4523,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K29" t="n">
         <v>2.27</v>
@@ -4552,7 +4556,7 @@
         <v>1.53</v>
       </c>
       <c r="R29" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S29" t="n">
         <v>2.25</v>
@@ -4564,28 +4568,28 @@
         <v>1.29</v>
       </c>
       <c r="V29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X29" t="n">
         <v>2.57</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>18</v>
       </c>
       <c r="AD29" t="n">
         <v>20</v>
@@ -4594,10 +4598,10 @@
         <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH29" t="n">
         <v>32</v>
@@ -4606,16 +4610,16 @@
         <v>175</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN29" t="n">
         <v>18</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -899,7 +899,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>34</v>
@@ -932,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1012,10 +1012,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -1096,7 +1096,7 @@
         <v>2.65</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="5">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1146,46 +1146,46 @@
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V5" t="n">
         <v>3.4</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>13</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>17</v>
@@ -1233,12 +1233,16 @@
         <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1554,46 +1558,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L8" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U8" t="n">
         <v>1.5</v>
@@ -1608,31 +1612,31 @@
         <v>1.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA8" t="n">
         <v>9</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
         <v>90</v>
@@ -1641,22 +1645,22 @@
         <v>900</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1704,7 +1708,7 @@
         <v>2.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -1737,16 +1741,16 @@
         <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1767,7 +1771,7 @@
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -1785,13 +1789,13 @@
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
         <v>17</v>
@@ -2535,7 +2539,7 @@
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
@@ -2544,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2583,7 +2587,7 @@
         <v>1.67</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
         <v>21</v>
@@ -2616,10 +2620,10 @@
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>9</v>
@@ -2674,22 +2678,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2698,10 +2702,10 @@
         <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
         <v>2.25</v>
@@ -2728,7 +2732,7 @@
         <v>1.73</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z16" t="n">
         <v>8.5</v>
@@ -2740,7 +2744,7 @@
         <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
         <v>34</v>
@@ -2758,13 +2762,13 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>15</v>
@@ -2773,7 +2777,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
         <v>41</v>
@@ -2822,7 +2826,7 @@
         <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>3.1</v>
@@ -2831,7 +2835,7 @@
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
@@ -2840,7 +2844,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2855,10 +2859,10 @@
         <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U17" t="n">
         <v>1.53</v>
@@ -2888,10 +2892,10 @@
         <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2903,7 +2907,7 @@
         <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -2924,10 +2928,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2982,22 +2986,22 @@
         <v>7.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3395,22 +3399,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3425,79 +3429,79 @@
         <v>5.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R21" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="W21" t="n">
         <v>1.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y21" t="n">
         <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
         <v>8.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
         <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AK21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO21" t="n">
         <v>25</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>22</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3536,109 +3540,109 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="S22" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="T22" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="V22" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="W22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="X22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AF22" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AG22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI22" t="n">
         <v>800</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3818,58 +3822,58 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
         <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L24" t="n">
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U24" t="n">
         <v>1.38</v>
       </c>
       <c r="V24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="W24" t="n">
         <v>1.65</v>
       </c>
       <c r="X24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y24" t="n">
         <v>8.75</v>
@@ -3887,28 +3891,28 @@
         <v>18</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF24" t="n">
         <v>6.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL24" t="n">
         <v>10.25</v>
@@ -3920,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -4385,31 +4389,31 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L28" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q28" t="n">
         <v>1.57</v>
@@ -4424,22 +4428,22 @@
         <v>1.52</v>
       </c>
       <c r="U28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA28" t="n">
         <v>10.75</v>
@@ -4448,43 +4452,43 @@
         <v>37</v>
       </c>
       <c r="AC28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD28" t="n">
         <v>25</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL28" t="n">
         <v>8.75</v>
       </c>
       <c r="AM28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
         <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4523,22 +4527,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4547,82 +4551,82 @@
         <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R29" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X29" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC29" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AG29" t="n">
         <v>10.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI29" t="n">
         <v>175</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AM29" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -695,19 +695,19 @@
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.25</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -734,22 +734,22 @@
         <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -779,7 +779,7 @@
         <v>251</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -857,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -982,22 +982,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1006,16 +1006,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -1024,10 +1024,10 @@
         <v>1.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
         <v>2.5</v>
@@ -1036,7 +1036,7 @@
         <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
         <v>5.5</v>
@@ -1045,7 +1045,7 @@
         <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1054,13 +1054,13 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>101</v>
@@ -1084,7 +1084,7 @@
         <v>101</v>
       </c>
       <c r="AO4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP4" t="n">
         <v>1.78</v>
@@ -1093,10 +1093,10 @@
         <v>2.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -1131,61 +1131,61 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V5" t="n">
         <v>3.25</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>13</v>
@@ -1200,28 +1200,28 @@
         <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
         <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>11</v>
@@ -1233,15 +1233,15 @@
         <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
@@ -1558,109 +1558,109 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
         <v>2.87</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
         <v>1.93</v>
       </c>
       <c r="L8" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V8" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA8" t="n">
-        <v>9</v>
-      </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF8" t="n">
         <v>5.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI8" t="n">
         <v>900</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
         <v>12.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
         <v>37</v>
       </c>
       <c r="AO8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -2533,22 +2533,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2581,19 +2581,19 @@
         <v>2.38</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
         <v>51</v>
@@ -2605,31 +2605,31 @@
         <v>51</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
         <v>6.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="n">
         <v>101</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL15" t="n">
         <v>9</v>
       </c>
       <c r="AM15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN15" t="n">
         <v>17</v>
@@ -2826,25 +2826,25 @@
         <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2859,10 +2859,10 @@
         <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U17" t="n">
         <v>1.53</v>
@@ -2895,7 +2895,7 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2907,16 +2907,16 @@
         <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
         <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>34</v>
@@ -2928,10 +2928,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2998,10 +2998,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3681,22 +3681,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K23" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L23" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3717,19 +3717,19 @@
         <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
         <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="V23" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
         <v>2.02</v>
@@ -3741,22 +3741,22 @@
         <v>8.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>8.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG23" t="n">
         <v>15</v>
@@ -3768,22 +3768,22 @@
         <v>400</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3822,109 +3822,109 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="V24" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
         <v>1.65</v>
       </c>
       <c r="X24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AM24" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -692,46 +692,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
         <v>1.36</v>
@@ -740,16 +740,16 @@
         <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -761,13 +761,13 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -776,13 +776,13 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
@@ -833,109 +833,109 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.75</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
         <v>34</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ3" t="n">
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
         <v>1.4</v>
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
         <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
@@ -1000,22 +1000,22 @@
         <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -1024,10 +1024,10 @@
         <v>1.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W4" t="n">
         <v>2.5</v>
@@ -1036,7 +1036,7 @@
         <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
         <v>5.5</v>
@@ -1054,10 +1054,10 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1093,10 +1093,10 @@
         <v>2.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="5">
@@ -2678,22 +2678,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2726,22 +2726,22 @@
         <v>2.5</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y16" t="n">
         <v>6.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>19</v>
@@ -2756,22 +2756,22 @@
         <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
@@ -2841,10 +2841,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2886,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>21</v>
@@ -2910,13 +2910,13 @@
         <v>800</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
         <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>34</v>
@@ -2968,19 +2968,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
         <v>7.5</v>
@@ -2998,10 +2998,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3031,7 +3031,7 @@
         <v>8.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
@@ -3055,13 +3055,13 @@
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>81</v>
@@ -3073,16 +3073,16 @@
         <v>51</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.9</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="19">

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -1000,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -1012,10 +1012,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -1093,10 +1093,10 @@
         <v>2.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5">
@@ -2823,22 +2823,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2880,13 +2880,13 @@
         <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>21</v>
@@ -2910,19 +2910,19 @@
         <v>800</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
         <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>41</v>
@@ -2968,22 +2968,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -2992,16 +2992,16 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3028,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="AA18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB18" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
@@ -3055,16 +3055,16 @@
         <v>351</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN18" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -1006,16 +1006,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -1093,10 +1093,10 @@
         <v>2.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">

--- a/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-27.xlsx
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
@@ -1000,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1012,22 +1012,22 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
         <v>2.5</v>
@@ -1036,7 +1036,7 @@
         <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
         <v>5.5</v>
@@ -1054,10 +1054,10 @@
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
@@ -1093,7 +1093,7 @@
         <v>2.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="AS4" t="n">
         <v>1.52</v>
